--- a/apifaker-masked/public/assets/excel/挡板接口导入model.xlsx
+++ b/apifaker-masked/public/assets/excel/挡板接口导入model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="getList" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>A</t>
   </si>
@@ -28,13 +28,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>模拟场景1</t>
-  </si>
-  <si>
-    <t>模拟场景2</t>
-  </si>
-  <si>
-    <t>模拟场景3</t>
+    <t>挡板数据1</t>
+  </si>
+  <si>
+    <t>挡板数据2</t>
+  </si>
+  <si>
+    <t>挡板数据3</t>
   </si>
   <si>
     <t>接口类型</t>
@@ -114,9 +114,15 @@
     <t>url</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>下载地址</t>
   </si>
   <si>
+    <t>http://www.sinosun.com</t>
+  </si>
+  <si>
     <t>upDescribe</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
     <t>更新描述</t>
   </si>
   <si>
+    <t>我,你,他</t>
+  </si>
+  <si>
     <t>signature</t>
   </si>
   <si>
@@ -150,10 +159,10 @@
     <t>groupName</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>分组名称。</t>
+  </si>
+  <si>
+    <t>我是分组名称</t>
   </si>
   <si>
     <t>Business</t>
@@ -191,16 +200,22 @@
     <t>subTime</t>
   </si>
   <si>
-    <t>Submitone</t>
+    <t>submitone</t>
   </si>
   <si>
     <t>flowId</t>
   </si>
   <si>
+    <t>id9966</t>
+  </si>
+  <si>
     <t>amount</t>
   </si>
   <si>
     <t>appName</t>
+  </si>
+  <si>
+    <t>审批</t>
   </si>
   <si>
     <t>-</t>
@@ -269,6 +284,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -277,144 +428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,6 +462,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,55 +516,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,61 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,56 +646,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -660,21 +675,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -734,17 +734,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,60 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -831,162 +816,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -995,16 +998,16 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1013,26 +1016,29 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1372,7 +1378,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1380,32 +1386,33 @@
     <col min="1" max="1" width="36.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1413,8 +1420,9 @@
         <v>8</v>
       </c>
       <c r="C2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1424,17 +1432,18 @@
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" customFormat="1" ht="17.25" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -1442,12 +1451,12 @@
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -1456,35 +1465,35 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1">
         <v>2</v>
       </c>
@@ -1492,75 +1501,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A10" s="14" t="s">
+    <row r="10" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" ht="18" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="18" spans="1:5">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="18" spans="1:6">
-      <c r="A12" s="11" t="s">
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="E11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17" t="s">
+    </row>
+    <row r="12" customFormat="1" ht="18" spans="1:5">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
+      <c r="C12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="18" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" customFormat="1" ht="18" spans="1:7">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>28</v>
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1570,196 +1583,234 @@
       </c>
     </row>
     <row r="15" ht="18" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>28</v>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" customFormat="1" ht="18" spans="1:4">
-      <c r="A17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" customFormat="1" ht="18" spans="1:4">
-      <c r="A18" s="11" t="s">
+    <row r="16" customFormat="1" ht="17.25" spans="1:5">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" ht="18" spans="1:5">
+      <c r="A17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" ht="18" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="17.25" spans="1:5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" ht="18" spans="1:5">
+      <c r="A20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" ht="18" spans="1:5">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9527</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="18" spans="1:5">
+      <c r="A22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="18" spans="1:5">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20200909</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="18" spans="1:5">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" ht="18" spans="1:5">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="18" spans="1:5">
+      <c r="A26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2">
+        <v>90009</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="17.25" spans="1:5">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" ht="18" spans="1:5">
+      <c r="A28" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" customFormat="1" ht="18" spans="1:4">
-      <c r="A20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" customFormat="1" ht="18" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" ht="18" spans="1:5">
+      <c r="A29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="18" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="D29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2">
+        <v>268308832</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="18" spans="1:5">
+      <c r="A30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="18" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="18" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="18" spans="1:4">
-      <c r="A25" s="11" t="s">
+      <c r="D30" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="18" spans="1:4">
-      <c r="A26" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" customFormat="1" ht="18" spans="1:4">
-      <c r="A28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" customFormat="1" ht="18" spans="1:4">
-      <c r="A29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="18" spans="1:4">
-      <c r="A30" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:1">
-      <c r="A32" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="E30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" display="http://www.sinosun.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
